--- a/数据整理/stocks/A股/深证主板/002645-华宏科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002645-华宏科技.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,31 +22,46 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
     <t>501030</t>
   </si>
   <si>
+    <t>164908</t>
+  </si>
+  <si>
     <t>501031</t>
   </si>
   <si>
-    <t>164908</t>
-  </si>
-  <si>
     <t>汇添富中证环境治理指数（LOF）A</t>
   </si>
   <si>
+    <t>交银施罗德中证环境治理指数（LOF）</t>
+  </si>
+  <si>
     <t>汇添富中证环境治理指数（LOF）C</t>
   </si>
   <si>
-    <t>交银施罗德中证环境治理指数（LOF）</t>
+    <t>10.28</t>
+  </si>
+  <si>
+    <t>4.72</t>
+  </si>
+  <si>
+    <t>3.67</t>
   </si>
   <si>
     <t>94.03</t>
@@ -59,6 +74,15 @@
   </si>
   <si>
     <t>2.26</t>
+  </si>
+  <si>
+    <t>0.2313</t>
+  </si>
+  <si>
+    <t>0.1067</t>
+  </si>
+  <si>
+    <t>0.0826</t>
   </si>
 </sst>
 </file>
@@ -416,13 +440,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,64 +462,88 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4">
         <v>4</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002645-华宏科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002645-华宏科技.xlsx
@@ -1,120 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>501030</t>
-  </si>
-  <si>
-    <t>164908</t>
-  </si>
-  <si>
-    <t>501031</t>
-  </si>
-  <si>
-    <t>汇添富中证环境治理指数（LOF）A</t>
-  </si>
-  <si>
-    <t>交银施罗德中证环境治理指数（LOF）</t>
-  </si>
-  <si>
-    <t>汇添富中证环境治理指数（LOF）C</t>
-  </si>
-  <si>
-    <t>10.28</t>
-  </si>
-  <si>
-    <t>4.72</t>
-  </si>
-  <si>
-    <t>3.67</t>
-  </si>
-  <si>
-    <t>94.03</t>
-  </si>
-  <si>
-    <t>94.32</t>
-  </si>
-  <si>
-    <t>2.25</t>
-  </si>
-  <si>
-    <t>2.26</t>
-  </si>
-  <si>
-    <t>0.2313</t>
-  </si>
-  <si>
-    <t>0.1067</t>
-  </si>
-  <si>
-    <t>0.0826</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -137,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -439,115 +446,417 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501030</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证环境治理指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2313</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>164908</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银施罗德中证环境治理指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1067</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501031</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富中证环境治理指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0826</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010137</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创享混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>60.76</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1235</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501030</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中证环境治理指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1101</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>164908</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银施罗德中证环境治理指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0535</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501031</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富中证环境治理指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010138</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创享混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>60.76</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002645-华宏科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002645-华宏科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -859,4 +860,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>070021</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实主题新动力混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9374</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000985</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实逆向策略股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4741</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010515</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国天兴回报混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>21.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0875</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010525</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国天兴回报混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>21.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002645-华宏科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002645-华宏科技.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1068,4 +1069,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002645-华宏科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002645-华宏科技.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1077,7 +1078,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1088,17 +1089,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1108,14 +1129,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.51</v>
+          <t>070021</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实主题新动力混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2597</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1124,14 +1167,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.33</v>
+          <t>000985</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实逆向策略股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6970</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1140,13 +1205,325 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>011033</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方宝恒混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>57.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>24.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3943</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010515</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国天兴回报混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>53.39</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>20.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2136</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011034</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方宝恒混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>23.36</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>24.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1588</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010029</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>31.41</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1194</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010030</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>31.41</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010525</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国天兴回报混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>20.74</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>3</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.42</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002645-华宏科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002645-华宏科技.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1438,7 +1439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1449,17 +1450,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1469,14 +1490,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.87</v>
+          <t>070021</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实主题新动力混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0986</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1485,14 +1528,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.51</v>
+          <t>000985</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实逆向策略股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6247</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1501,14 +1566,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.33</v>
+          <t>014307</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实多元动力混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0781</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1517,13 +1604,151 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>014308</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实多元动力混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>3</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.42</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002645-华宏科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002645-华宏科技.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1647,7 +1648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1658,17 +1659,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1678,14 +1699,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>070021</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实主题新动力混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9717</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.81</v>
       </c>
     </row>
     <row r="3">
@@ -1694,14 +1737,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.87</v>
+          <t>000985</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实逆向策略股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5369</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1710,14 +1775,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.51</v>
+          <t>014307</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实多元动力混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0948</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1726,14 +1813,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.33</v>
+          <t>005075</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国研究量化精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0618</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1742,13 +1851,205 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>006354</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰民裕进取灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>71.88</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014308</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实多元动力混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>3</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.42</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002645-华宏科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002645-华宏科技.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,167 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>501030</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>汇添富中证环境治理指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>10.28</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.03</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2313</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>164908</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>交银施罗德中证环境治理指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.72</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.32</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1067</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+      <c r="D3" t="n">
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>501031</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>汇添富中证环境治理指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.03</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0826</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
+      <c r="D5" t="n">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.42</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -626,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -677,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010137</t>
+          <t>070021</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化创享混合A</t>
+          <t>嘉实主题新动力混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.43</t>
+          <t>19.71</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>60.76</t>
+          <t>94.07</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>4.93</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1235</t>
+          <t>0.9717</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -715,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501030</t>
+          <t>000985</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇添富中证环境治理指数（LOF）A</t>
+          <t>嘉实逆向策略股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.37</t>
+          <t>10.89</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.05</t>
+          <t>94.04</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>4.93</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1101</t>
+          <t>0.5369</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -753,36 +715,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>164908</t>
+          <t>014307</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>交银施罗德中证环境治理指数（LOF）</t>
+          <t>嘉实多元动力混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.46</t>
+          <t>94.30</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.09</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0535</t>
+          <t>0.0948</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -791,36 +753,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>501031</t>
+          <t>005075</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>汇添富中证环境治理指数（LOF）C</t>
+          <t>富国研究量化精选混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.05</t>
+          <t>94.62</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0324</t>
+          <t>0.0618</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -829,36 +791,74 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010138</t>
+          <t>006354</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化创享混合C</t>
+          <t>国泰民裕进取灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>60.76</t>
+          <t>71.88</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0077</t>
+          <t>0.0109</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014308</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实多元动力混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -893,7 +893,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -933,26 +933,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>18.71</t>
+          <t>24.04</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.84</t>
+          <t>93.93</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.01</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9374</t>
+          <t>1.0986</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -971,26 +971,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9.37</t>
+          <t>13.64</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.85</t>
+          <t>93.90</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.06</t>
+          <t>4.58</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4741</t>
+          <t>0.6247</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -999,36 +999,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010515</t>
+          <t>014307</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>富国天兴回报混合A</t>
+          <t>嘉实多元动力混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>19.02</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>21.13</t>
+          <t>91.81</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>4.27</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0875</t>
+          <t>0.0781</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1037,36 +1037,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010525</t>
+          <t>014308</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>富国天兴回报混合C</t>
+          <t>嘉实多元动力混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>21.13</t>
+          <t>91.81</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>4.27</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0066</t>
+          <t>0.0085</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1501,26 +1501,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>24.04</t>
+          <t>18.71</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.93</t>
+          <t>93.84</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>5.01</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.0986</t>
+          <t>0.9374</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1539,26 +1539,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>13.64</t>
+          <t>9.37</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.90</t>
+          <t>93.85</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.58</t>
+          <t>5.06</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.6247</t>
+          <t>0.4741</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1567,36 +1567,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>014307</t>
+          <t>010515</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>嘉实多元动力混合A</t>
+          <t>富国天兴回报混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>19.02</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.81</t>
+          <t>21.13</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.27</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0781</t>
+          <t>0.0875</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1605,36 +1605,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>014308</t>
+          <t>010525</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>嘉实多元动力混合C</t>
+          <t>富国天兴回报混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.81</t>
+          <t>21.13</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.27</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0085</t>
+          <t>0.0066</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1648,7 +1648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1669,7 +1669,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1699,36 +1699,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>070021</t>
+          <t>010137</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>嘉实主题新动力混合</t>
+          <t>华泰柏瑞量化创享混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>19.71</t>
+          <t>9.43</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.07</t>
+          <t>60.76</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.93</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9717</t>
+          <t>0.1235</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1737,36 +1737,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000985</t>
+          <t>501030</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>嘉实逆向策略股票</t>
+          <t>汇添富中证环境治理指数（LOF）A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10.89</t>
+          <t>5.37</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.04</t>
+          <t>93.05</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.93</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5369</t>
+          <t>0.1101</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1775,36 +1775,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>014307</t>
+          <t>164908</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>嘉实多元动力混合A</t>
+          <t>交银施罗德中证环境治理指数（LOF）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.30</t>
+          <t>94.46</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0948</t>
+          <t>0.0535</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1813,36 +1813,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005075</t>
+          <t>501031</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>富国研究量化精选混合</t>
+          <t>汇添富中证环境治理指数（LOF）C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.62</t>
+          <t>93.05</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0618</t>
+          <t>0.0324</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1851,74 +1851,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006354</t>
+          <t>010138</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国泰民裕进取灵活配置混合</t>
+          <t>华泰柏瑞量化创享混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>71.88</t>
+          <t>60.76</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0109</t>
+          <t>0.0077</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>014308</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>嘉实多元动力混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.30</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.56</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0100</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1932,128 +1894,166 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.69</v>
+          <t>501030</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证环境治理指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2313</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>164908</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银施罗德中证环境治理指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1067</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>4</v>
       </c>
-      <c r="D3" t="n">
-        <v>1.81</v>
-      </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.87</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+          <t>501031</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富中证环境治理指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0826</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>4</v>
       </c>
-      <c r="D5" t="n">
-        <v>1.51</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.42</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002645-华宏科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002645-华宏科技.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>1.69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>1.81</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>2.87</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>1.51</v>
+        <v>2.87</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.33</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>3</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.42</v>
       </c>
     </row>
@@ -583,6 +600,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004727</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004726</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -866,7 +1015,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1074,7 +1223,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1434,7 +1583,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1642,7 +1791,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1888,7 +2037,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
